--- a/intervals_window_additive_0.5_6_10_5000_total_error.xlsx
+++ b/intervals_window_additive_0.5_6_10_5000_total_error.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.316406194563069</v>
+        <v>3.10885245135245</v>
       </c>
       <c r="C2" t="n">
-        <v>2.266199284188039</v>
+        <v>3.063596961161979</v>
       </c>
       <c r="D2" t="n">
-        <v>2.365252159736112</v>
+        <v>3.154832723869489</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.354309451698505</v>
+        <v>3.024373611511553</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.297471191466974</v>
+        <v>2.930310062578464</v>
       </c>
       <c r="C3" t="n">
-        <v>2.240870699743028</v>
+        <v>2.862120995980432</v>
       </c>
       <c r="D3" t="n">
-        <v>2.353690251543298</v>
+        <v>2.998095260086202</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.354309451698505</v>
+        <v>3.024373611511553</v>
       </c>
     </row>
     <row r="4">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.308282690908536</v>
+        <v>3.027852928592376</v>
       </c>
       <c r="C4" t="n">
-        <v>2.258558105898678</v>
+        <v>2.985210446970264</v>
       </c>
       <c r="D4" t="n">
-        <v>2.355970536262504</v>
+        <v>3.070816723856103</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.354309451698505</v>
+        <v>3.024373611511553</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.295818636716879</v>
+        <v>2.912888184178787</v>
       </c>
       <c r="C5" t="n">
-        <v>2.247606281288377</v>
+        <v>2.874444224170186</v>
       </c>
       <c r="D5" t="n">
-        <v>2.340665681320695</v>
+        <v>2.952175249058433</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.354309451698505</v>
+        <v>3.024373611511553</v>
       </c>
     </row>
     <row r="6">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.348185954970813</v>
+        <v>2.894301995929907</v>
       </c>
       <c r="C6" t="n">
-        <v>2.301828353964034</v>
+        <v>2.85757822058517</v>
       </c>
       <c r="D6" t="n">
-        <v>2.393903792087768</v>
+        <v>2.930695497636807</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.354309451698505</v>
+        <v>3.024373611511553</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.353677859307883</v>
+        <v>2.912324653557276</v>
       </c>
       <c r="C7" t="n">
-        <v>2.302201958531918</v>
+        <v>2.858756919690894</v>
       </c>
       <c r="D7" t="n">
-        <v>2.405533423785627</v>
+        <v>2.963225751307038</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.354309451698505</v>
+        <v>3.024373611511553</v>
       </c>
     </row>
     <row r="8">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.34453180233101</v>
+        <v>2.990337994468192</v>
       </c>
       <c r="C8" t="n">
-        <v>2.294993182214279</v>
+        <v>2.950906279668819</v>
       </c>
       <c r="D8" t="n">
-        <v>2.391043152332856</v>
+        <v>3.031400672690194</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.398185935600847</v>
+        <v>2.99085742651908</v>
       </c>
     </row>
     <row r="9">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.336338916698735</v>
+        <v>2.906758557067787</v>
       </c>
       <c r="C9" t="n">
-        <v>2.288927957432282</v>
+        <v>2.859455964191394</v>
       </c>
       <c r="D9" t="n">
-        <v>2.384934685998251</v>
+        <v>2.950692272460701</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.398185935600847</v>
+        <v>2.99085742651908</v>
       </c>
     </row>
     <row r="10">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.345412478255948</v>
+        <v>2.959784077149188</v>
       </c>
       <c r="C10" t="n">
-        <v>2.296029384552578</v>
+        <v>2.921477643810345</v>
       </c>
       <c r="D10" t="n">
-        <v>2.391673678852829</v>
+        <v>3.000065241322965</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.398185935600847</v>
+        <v>2.99085742651908</v>
       </c>
     </row>
     <row r="11">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.337872996841387</v>
+        <v>2.900192120532211</v>
       </c>
       <c r="C11" t="n">
-        <v>2.289845216953248</v>
+        <v>2.863316377494779</v>
       </c>
       <c r="D11" t="n">
-        <v>2.383467173260457</v>
+        <v>2.938773475749116</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.398185935600847</v>
+        <v>2.99085742651908</v>
       </c>
     </row>
     <row r="12">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.360828522099625</v>
+        <v>2.885685975725918</v>
       </c>
       <c r="C12" t="n">
-        <v>2.313269197242275</v>
+        <v>2.848925860045101</v>
       </c>
       <c r="D12" t="n">
-        <v>2.406082338260267</v>
+        <v>2.921863311425222</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.398185935600847</v>
+        <v>2.99085742651908</v>
       </c>
     </row>
     <row r="13">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.363610752462217</v>
+        <v>2.894876392588924</v>
       </c>
       <c r="C13" t="n">
-        <v>2.316148220007597</v>
+        <v>2.853406375700052</v>
       </c>
       <c r="D13" t="n">
-        <v>2.410385012021875</v>
+        <v>2.935480763371308</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.398185935600847</v>
+        <v>2.99085742651908</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.289062513035372</v>
+        <v>3.230324390568874</v>
       </c>
       <c r="C14" t="n">
-        <v>2.234836785087384</v>
+        <v>3.17302733544327</v>
       </c>
       <c r="D14" t="n">
-        <v>2.340210648891189</v>
+        <v>3.284569409794187</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.310261745353446</v>
+        <v>3.057776654539124</v>
       </c>
     </row>
     <row r="15">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.25762865121848</v>
+        <v>2.946829417786919</v>
       </c>
       <c r="C15" t="n">
-        <v>2.18663118114651</v>
+        <v>2.844695665428703</v>
       </c>
       <c r="D15" t="n">
-        <v>2.328988263699129</v>
+        <v>3.047804334761298</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.310261745353446</v>
+        <v>3.057776654539124</v>
       </c>
     </row>
     <row r="16">
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.262902789590975</v>
+        <v>3.078007925738426</v>
       </c>
       <c r="C16" t="n">
-        <v>2.21210791648756</v>
+        <v>3.029405654827993</v>
       </c>
       <c r="D16" t="n">
-        <v>2.311379725382614</v>
+        <v>3.125054654342386</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.310261745353446</v>
+        <v>3.057776654539124</v>
       </c>
     </row>
     <row r="17">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.248043995526469</v>
+        <v>2.914712755827386</v>
       </c>
       <c r="C17" t="n">
-        <v>2.199259920517712</v>
+        <v>2.87015247022401</v>
       </c>
       <c r="D17" t="n">
-        <v>2.294842811714402</v>
+        <v>2.957348061144556</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.310261745353446</v>
+        <v>3.057776654539124</v>
       </c>
     </row>
     <row r="18">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.335483329950743</v>
+        <v>2.902644149674311</v>
       </c>
       <c r="C18" t="n">
-        <v>2.288868957202615</v>
+        <v>2.865741952294071</v>
       </c>
       <c r="D18" t="n">
-        <v>2.381429593273164</v>
+        <v>2.939780231257814</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.310261745353446</v>
+        <v>3.057776654539124</v>
       </c>
     </row>
     <row r="19">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.343974514003664</v>
+        <v>2.928699511136695</v>
       </c>
       <c r="C19" t="n">
-        <v>2.287214483561903</v>
+        <v>2.857130977636456</v>
       </c>
       <c r="D19" t="n">
-        <v>2.406057375251518</v>
+        <v>2.998987288314845</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.310261745353446</v>
+        <v>3.057776654539124</v>
       </c>
     </row>
   </sheetData>

--- a/intervals_window_additive_0.5_6_10_5000_total_error.xlsx
+++ b/intervals_window_additive_0.5_6_10_5000_total_error.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.10885245135245</v>
+        <v>2.646967928061335</v>
       </c>
       <c r="C2" t="n">
-        <v>3.063596961161979</v>
+        <v>2.59465834345713</v>
       </c>
       <c r="D2" t="n">
-        <v>3.154832723869489</v>
+        <v>2.703136925203714</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.024373611511553</v>
+        <v>2.544458581773989</v>
       </c>
     </row>
     <row r="3">
@@ -491,13 +491,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.930310062578464</v>
+        <v>2.523915488852924</v>
       </c>
       <c r="C3" t="n">
-        <v>2.862120995980432</v>
+        <v>2.45537117885064</v>
       </c>
       <c r="D3" t="n">
-        <v>2.998095260086202</v>
+        <v>2.596317885921218</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3.024373611511553</v>
+        <v>2.544458581773989</v>
       </c>
     </row>
     <row r="4">
@@ -515,13 +515,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.027852928592376</v>
+        <v>2.579278114975115</v>
       </c>
       <c r="C4" t="n">
-        <v>2.985210446970264</v>
+        <v>2.528065187447935</v>
       </c>
       <c r="D4" t="n">
-        <v>3.070816723856103</v>
+        <v>2.632192170853176</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.024373611511553</v>
+        <v>2.544458581773989</v>
       </c>
     </row>
     <row r="5">
@@ -539,13 +539,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.912888184178787</v>
+        <v>2.493280121598814</v>
       </c>
       <c r="C5" t="n">
-        <v>2.874444224170186</v>
+        <v>2.442721728756096</v>
       </c>
       <c r="D5" t="n">
-        <v>2.952175249058433</v>
+        <v>2.543150383332312</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.024373611511553</v>
+        <v>2.544458581773989</v>
       </c>
     </row>
     <row r="6">
@@ -563,13 +563,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.894301995929907</v>
+        <v>2.504528132784825</v>
       </c>
       <c r="C6" t="n">
-        <v>2.85757822058517</v>
+        <v>2.45408181881171</v>
       </c>
       <c r="D6" t="n">
-        <v>2.930695497636807</v>
+        <v>2.554903138762745</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.024373611511553</v>
+        <v>2.544458581773989</v>
       </c>
     </row>
     <row r="7">
@@ -587,13 +587,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.912324653557276</v>
+        <v>2.518104111662777</v>
       </c>
       <c r="C7" t="n">
-        <v>2.858756919690894</v>
+        <v>2.457974464864048</v>
       </c>
       <c r="D7" t="n">
-        <v>2.963225751307038</v>
+        <v>2.578633675694402</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.024373611511553</v>
+        <v>2.544458581773989</v>
       </c>
     </row>
     <row r="8">
@@ -611,13 +611,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.990337994468192</v>
+        <v>2.577815359651211</v>
       </c>
       <c r="C8" t="n">
-        <v>2.950906279668819</v>
+        <v>2.526956204679631</v>
       </c>
       <c r="D8" t="n">
-        <v>3.031400672690194</v>
+        <v>2.62924005825137</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.99085742651908</v>
+        <v>2.540339768998663</v>
       </c>
     </row>
     <row r="9">
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.906758557067787</v>
+        <v>2.512829533864281</v>
       </c>
       <c r="C9" t="n">
-        <v>2.859455964191394</v>
+        <v>2.458986397198883</v>
       </c>
       <c r="D9" t="n">
-        <v>2.950692272460701</v>
+        <v>2.567915653972404</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.99085742651908</v>
+        <v>2.540339768998663</v>
       </c>
     </row>
     <row r="10">
@@ -659,13 +659,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.959784077149188</v>
+        <v>2.549360539132295</v>
       </c>
       <c r="C10" t="n">
-        <v>2.921477643810345</v>
+        <v>2.498300665137729</v>
       </c>
       <c r="D10" t="n">
-        <v>3.000065241322965</v>
+        <v>2.599704138587824</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.99085742651908</v>
+        <v>2.540339768998663</v>
       </c>
     </row>
     <row r="11">
@@ -683,13 +683,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.900192120532211</v>
+        <v>2.50197571700848</v>
       </c>
       <c r="C11" t="n">
-        <v>2.863316377494779</v>
+        <v>2.453190848761658</v>
       </c>
       <c r="D11" t="n">
-        <v>2.938773475749116</v>
+        <v>2.55087039126048</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.99085742651908</v>
+        <v>2.540339768998663</v>
       </c>
     </row>
     <row r="12">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.885685975725918</v>
+        <v>2.503369753774956</v>
       </c>
       <c r="C12" t="n">
-        <v>2.848925860045101</v>
+        <v>2.452070207097535</v>
       </c>
       <c r="D12" t="n">
-        <v>2.921863311425222</v>
+        <v>2.552706658801787</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.99085742651908</v>
+        <v>2.540339768998663</v>
       </c>
     </row>
     <row r="13">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.894876392588924</v>
+        <v>2.510460674095691</v>
       </c>
       <c r="C13" t="n">
-        <v>2.853406375700052</v>
+        <v>2.457629587097973</v>
       </c>
       <c r="D13" t="n">
-        <v>2.935480763371308</v>
+        <v>2.562661755051862</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.99085742651908</v>
+        <v>2.540339768998663</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.230324390568874</v>
+        <v>2.707443013201952</v>
       </c>
       <c r="C14" t="n">
-        <v>3.17302733544327</v>
+        <v>2.650625418949913</v>
       </c>
       <c r="D14" t="n">
-        <v>3.284569409794187</v>
+        <v>2.767136567659741</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -769,7 +769,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.057776654539124</v>
+        <v>2.548602027502346</v>
       </c>
     </row>
     <row r="15">
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.946829417786919</v>
+        <v>2.535370063623021</v>
       </c>
       <c r="C15" t="n">
-        <v>2.844695665428703</v>
+        <v>2.43935816049701</v>
       </c>
       <c r="D15" t="n">
-        <v>3.047804334761298</v>
+        <v>2.632363936961042</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.057776654539124</v>
+        <v>2.548602027502346</v>
       </c>
     </row>
     <row r="16">
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.078007925738426</v>
+        <v>2.593693747806772</v>
       </c>
       <c r="C16" t="n">
-        <v>3.029405654827993</v>
+        <v>2.541124426591673</v>
       </c>
       <c r="D16" t="n">
-        <v>3.125054654342386</v>
+        <v>2.648575488385673</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.057776654539124</v>
+        <v>2.548602027502346</v>
       </c>
     </row>
     <row r="17">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.914712755827386</v>
+        <v>2.476495082377941</v>
       </c>
       <c r="C17" t="n">
-        <v>2.87015247022401</v>
+        <v>2.425667071665373</v>
       </c>
       <c r="D17" t="n">
-        <v>2.957348061144556</v>
+        <v>2.52700484531038</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.057776654539124</v>
+        <v>2.548602027502346</v>
       </c>
     </row>
     <row r="18">
@@ -851,13 +851,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.902644149674311</v>
+        <v>2.505152479657029</v>
       </c>
       <c r="C18" t="n">
-        <v>2.865741952294071</v>
+        <v>2.455601820432814</v>
       </c>
       <c r="D18" t="n">
-        <v>2.939780231257814</v>
+        <v>2.555574936200067</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.057776654539124</v>
+        <v>2.548602027502346</v>
       </c>
     </row>
     <row r="19">
@@ -875,13 +875,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.928699511136695</v>
+        <v>2.524786386121084</v>
       </c>
       <c r="C19" t="n">
-        <v>2.857130977636456</v>
+        <v>2.458184645813055</v>
       </c>
       <c r="D19" t="n">
-        <v>2.998987288314845</v>
+        <v>2.59549415877023</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.057776654539124</v>
+        <v>2.548602027502346</v>
       </c>
     </row>
   </sheetData>
